--- a/data/MisInfoText/Analysis_output/MisInfoText_lexical_density.xlsx
+++ b/data/MisInfoText/Analysis_output/MisInfoText_lexical_density.xlsx
@@ -2413,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2445,7 @@
         <v>221</v>
       </c>
       <c r="B2">
-        <v>0.4744268077601411</v>
+        <v>0.5480572597137015</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>222</v>
       </c>
       <c r="B3">
-        <v>0.5622119815668203</v>
+        <v>0.6382978723404256</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>223</v>
       </c>
       <c r="B4">
-        <v>0.5365853658536586</v>
+        <v>0.6043956043956044</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>224</v>
       </c>
       <c r="B5">
-        <v>0.4736842105263158</v>
+        <v>0.5142857142857142</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>225</v>
       </c>
       <c r="B6">
-        <v>0.4927953890489913</v>
+        <v>0.5533980582524272</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>226</v>
       </c>
       <c r="B7">
-        <v>0.4984833164812942</v>
+        <v>0.5516853932584269</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>227</v>
       </c>
       <c r="B8">
-        <v>0.5228426395939086</v>
+        <v>0.5852272727272727</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>228</v>
       </c>
       <c r="B9">
-        <v>0.5340909090909091</v>
+        <v>0.6133333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>229</v>
       </c>
       <c r="B10">
-        <v>0.4772727272727273</v>
+        <v>0.5080645161290323</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>230</v>
       </c>
       <c r="B11">
-        <v>0.5422535211267606</v>
+        <v>0.6260162601626016</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>231</v>
       </c>
       <c r="B12">
-        <v>0.521551724137931</v>
+        <v>0.594059405940594</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>232</v>
       </c>
       <c r="B13">
-        <v>0.4906103286384976</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>233</v>
       </c>
       <c r="B14">
-        <v>0.4686387291153108</v>
+        <v>0.5532679738562092</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>234</v>
       </c>
       <c r="B15">
-        <v>0.5430978613091381</v>
+        <v>0.5985611510791367</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>235</v>
       </c>
       <c r="B16">
-        <v>0.4532710280373832</v>
+        <v>0.5160427807486631</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>236</v>
       </c>
       <c r="B17">
-        <v>0.4831460674157304</v>
+        <v>0.5341614906832298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>237</v>
       </c>
       <c r="B18">
-        <v>0.4873563218390805</v>
+        <v>0.6169590643274854</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>238</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5823754789272031</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>239</v>
       </c>
       <c r="B20">
-        <v>0.5191146881287726</v>
+        <v>0.5890736342042755</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>240</v>
       </c>
       <c r="B21">
-        <v>0.5919732441471572</v>
+        <v>0.6796875</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>241</v>
       </c>
       <c r="B22">
-        <v>0.49800796812749</v>
+        <v>0.5642201834862385</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>242</v>
       </c>
       <c r="B23">
-        <v>0.4888059701492538</v>
+        <v>0.5632183908045977</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>243</v>
       </c>
       <c r="B24">
-        <v>0.4964285714285714</v>
+        <v>0.5685071574642127</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>244</v>
       </c>
       <c r="B25">
-        <v>0.5185185185185185</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>245</v>
       </c>
       <c r="B26">
-        <v>0.5101404056162246</v>
+        <v>0.5691768826619965</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>246</v>
       </c>
       <c r="B27">
-        <v>0.7058823529411765</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>247</v>
       </c>
       <c r="B28">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>248</v>
       </c>
       <c r="B29">
-        <v>0.4429967426710097</v>
+        <v>0.5298701298701298</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>249</v>
       </c>
       <c r="B30">
-        <v>0.4889103182256509</v>
+        <v>0.5494028230184582</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>250</v>
       </c>
       <c r="B31">
-        <v>0.4352201257861635</v>
+        <v>0.521870286576169</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>251</v>
       </c>
       <c r="B32">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>252</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>253</v>
       </c>
       <c r="B34">
-        <v>0.4571428571428571</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>254</v>
       </c>
       <c r="B35">
-        <v>0.4381443298969072</v>
+        <v>0.4739776951672863</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>255</v>
       </c>
       <c r="B36">
-        <v>0.4798387096774194</v>
+        <v>0.5349887133182845</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>256</v>
       </c>
       <c r="B37">
-        <v>0.503448275862069</v>
+        <v>0.5572519083969466</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>257</v>
       </c>
       <c r="B38">
-        <v>0.4482758620689655</v>
+        <v>0.5257352941176471</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>258</v>
       </c>
       <c r="B39">
-        <v>0.4803921568627451</v>
+        <v>0.5298372513562387</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>259</v>
       </c>
       <c r="B40">
-        <v>0.5090497737556561</v>
+        <v>0.5818181818181818</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>260</v>
       </c>
       <c r="B41">
-        <v>0.4176646706586826</v>
+        <v>0.5284090909090909</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>261</v>
       </c>
       <c r="B42">
-        <v>0.4805771365149833</v>
+        <v>0.5347394540942928</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>262</v>
       </c>
       <c r="B43">
-        <v>0.53125</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>263</v>
       </c>
       <c r="B44">
-        <v>0.4444444444444444</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>264</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>265</v>
       </c>
       <c r="B46">
-        <v>0.4908616187989556</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>266</v>
       </c>
       <c r="B47">
-        <v>0.4596491228070175</v>
+        <v>0.5458333333333333</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>267</v>
       </c>
       <c r="B48">
-        <v>0.4475465313028765</v>
+        <v>0.4925093632958801</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>268</v>
       </c>
       <c r="B49">
-        <v>0.5274725274725275</v>
+        <v>0.5798611111111112</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>269</v>
       </c>
       <c r="B50">
-        <v>0.4358620689655173</v>
+        <v>0.4839203675344563</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>270</v>
       </c>
       <c r="B51">
-        <v>0.4229480737018426</v>
+        <v>0.4693308550185873</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>271</v>
       </c>
       <c r="B52">
-        <v>0.4690721649484536</v>
+        <v>0.5419161676646707</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>272</v>
       </c>
       <c r="B53">
-        <v>0.4474885844748858</v>
+        <v>0.5212765957446809</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>273</v>
       </c>
       <c r="B54">
-        <v>0.4528795811518325</v>
+        <v>0.5389408099688473</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>274</v>
       </c>
       <c r="B55">
-        <v>0.5202312138728323</v>
+        <v>0.5750798722044729</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>275</v>
       </c>
       <c r="B56">
-        <v>0.3996865203761755</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>276</v>
       </c>
       <c r="B57">
-        <v>0.5114503816793893</v>
+        <v>0.56657223796034</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>277</v>
       </c>
       <c r="B58">
-        <v>0.4411764705882353</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>278</v>
       </c>
       <c r="B59">
-        <v>0.48301329394387</v>
+        <v>0.5565068493150684</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2909,7 +2909,7 @@
         <v>279</v>
       </c>
       <c r="B60">
-        <v>0.5131578947368421</v>
+        <v>0.580952380952381</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2917,7 +2917,7 @@
         <v>280</v>
       </c>
       <c r="B61">
-        <v>0.5227272727272727</v>
+        <v>0.5758468335787923</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>281</v>
       </c>
       <c r="B62">
-        <v>0.4907407407407408</v>
+        <v>0.5408163265306123</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>282</v>
       </c>
       <c r="B63">
-        <v>0.547945205479452</v>
+        <v>0.6106870229007634</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>283</v>
       </c>
       <c r="B64">
-        <v>0.68</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>284</v>
       </c>
       <c r="B65">
-        <v>0.4721189591078067</v>
+        <v>0.5313807531380753</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>285</v>
       </c>
       <c r="B66">
-        <v>0.5494186046511628</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2965,7 +2965,7 @@
         <v>286</v>
       </c>
       <c r="B67">
-        <v>0.5483870967741935</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>287</v>
       </c>
       <c r="B68">
-        <v>0.5185185185185185</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>288</v>
       </c>
       <c r="B69">
-        <v>0.4516129032258064</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>289</v>
       </c>
       <c r="B70">
-        <v>0.5217391304347826</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>290</v>
       </c>
       <c r="B71">
-        <v>0.48</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>291</v>
       </c>
       <c r="B72">
-        <v>0.5789473684210527</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>292</v>
       </c>
       <c r="B73">
-        <v>0.512539184952978</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>293</v>
       </c>
       <c r="B74">
-        <v>0.5909090909090909</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>294</v>
       </c>
       <c r="B75">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>295</v>
       </c>
       <c r="B76">
-        <v>0.4828282828282828</v>
+        <v>0.5446224256292906</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>296</v>
       </c>
       <c r="B77">
-        <v>0.6086956521739131</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>297</v>
       </c>
       <c r="B78">
-        <v>0.4915848527349229</v>
+        <v>0.5634146341463414</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>298</v>
       </c>
       <c r="B79">
-        <v>0.4642857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>299</v>
       </c>
       <c r="B80">
-        <v>0.3571428571428572</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>300</v>
       </c>
       <c r="B81">
-        <v>0.4385749385749386</v>
+        <v>0.5096913137114142</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>301</v>
       </c>
       <c r="B82">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>302</v>
       </c>
       <c r="B83">
-        <v>0.5833333333333334</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>303</v>
       </c>
       <c r="B84">
-        <v>0.4556737588652482</v>
+        <v>0.5340659340659341</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>304</v>
       </c>
       <c r="B85">
-        <v>0.4519774011299435</v>
+        <v>0.5095541401273885</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>305</v>
       </c>
       <c r="B86">
-        <v>0.5111731843575419</v>
+        <v>0.5535168195718655</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>306</v>
       </c>
       <c r="B87">
-        <v>0.4657534246575342</v>
+        <v>0.5340314136125655</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>307</v>
       </c>
       <c r="B88">
-        <v>0.5196850393700787</v>
+        <v>0.6226415094339622</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>308</v>
       </c>
       <c r="B89">
-        <v>0.4827586206896552</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>309</v>
       </c>
       <c r="B90">
-        <v>0.5149572649572649</v>
+        <v>0.5738095238095238</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>310</v>
       </c>
       <c r="B91">
-        <v>0.5217391304347826</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3165,7 +3165,7 @@
         <v>311</v>
       </c>
       <c r="B92">
-        <v>0.4642857142857143</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -3287,7 +3287,7 @@
         <v>312</v>
       </c>
       <c r="B2">
-        <v>0.4963680387409201</v>
+        <v>0.5790960451977402</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>313</v>
       </c>
       <c r="B3">
-        <v>0.5387673956262425</v>
+        <v>0.6076233183856502</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>314</v>
       </c>
       <c r="B4">
-        <v>0.5167958656330749</v>
+        <v>0.5778748180494906</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>315</v>
       </c>
       <c r="B5">
-        <v>0.5610859728506787</v>
+        <v>0.6455026455026455</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>316</v>
       </c>
       <c r="B6">
-        <v>0.5034246575342466</v>
+        <v>0.5730994152046783</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>317</v>
       </c>
       <c r="B7">
-        <v>0.4980205859065717</v>
+        <v>0.5627822944896116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>318</v>
       </c>
       <c r="B8">
-        <v>0.4932079414838035</v>
+        <v>0.5522914218566393</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>319</v>
       </c>
       <c r="B9">
-        <v>0.4746787603930461</v>
+        <v>0.5432525951557093</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>320</v>
       </c>
       <c r="B10">
-        <v>0.4521739130434783</v>
+        <v>0.5189620758483033</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>321</v>
       </c>
       <c r="B11">
-        <v>0.5092838196286472</v>
+        <v>0.5737211634904714</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>322</v>
       </c>
       <c r="B12">
-        <v>0.5222929936305732</v>
+        <v>0.5774647887323944</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>323</v>
       </c>
       <c r="B13">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>324</v>
       </c>
       <c r="B14">
-        <v>0.45</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>325</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>326</v>
       </c>
       <c r="B16">
-        <v>0.4824902723735409</v>
+        <v>0.5688073394495413</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>327</v>
       </c>
       <c r="B17">
-        <v>0.4592105263157895</v>
+        <v>0.5279878971255674</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>328</v>
       </c>
       <c r="B18">
-        <v>0.6818181818181818</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>329</v>
       </c>
       <c r="B19">
-        <v>0.5080213903743316</v>
+        <v>0.5792682926829268</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>330</v>
       </c>
       <c r="B20">
-        <v>0.5228365384615384</v>
+        <v>0.638235294117647</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>331</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>332</v>
       </c>
       <c r="B22">
-        <v>0.3333333333333333</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>333</v>
       </c>
       <c r="B23">
-        <v>0.4416243654822335</v>
+        <v>0.5506329113924051</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>334</v>
       </c>
       <c r="B24">
-        <v>0.4281437125748503</v>
+        <v>0.4982578397212544</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>335</v>
       </c>
       <c r="B25">
-        <v>0.5376344086021505</v>
+        <v>0.5791505791505791</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>336</v>
       </c>
       <c r="B26">
-        <v>0.5307262569832403</v>
+        <v>0.594959495949595</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>337</v>
       </c>
       <c r="B27">
-        <v>0.5384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>338</v>
       </c>
       <c r="B28">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>339</v>
       </c>
       <c r="B29">
-        <v>0.538135593220339</v>
+        <v>0.5934579439252337</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>340</v>
       </c>
       <c r="B30">
-        <v>0.5352112676056338</v>
+        <v>0.5846153846153846</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>341</v>
       </c>
       <c r="B31">
-        <v>0.5185185185185185</v>
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>342</v>
       </c>
       <c r="B32">
-        <v>0.5157068062827225</v>
+        <v>0.5843373493975904</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>343</v>
       </c>
       <c r="B33">
-        <v>0.4921465968586388</v>
+        <v>0.5531496062992126</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>344</v>
       </c>
       <c r="B34">
-        <v>0.5045161290322581</v>
+        <v>0.5522598870056498</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>345</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>0.5562130177514792</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>346</v>
       </c>
       <c r="B36">
-        <v>0.5016722408026756</v>
+        <v>0.5603985056039851</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>347</v>
       </c>
       <c r="B37">
-        <v>0.5139664804469274</v>
+        <v>0.5897435897435898</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>348</v>
       </c>
       <c r="B38">
-        <v>0.5652173913043478</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>349</v>
       </c>
       <c r="B39">
-        <v>0.4980237154150198</v>
+        <v>0.5560816809707014</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>350</v>
       </c>
       <c r="B40">
-        <v>0.4666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>351</v>
       </c>
       <c r="B41">
-        <v>0.5034674063800277</v>
+        <v>0.5605590062111802</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>352</v>
       </c>
       <c r="B42">
-        <v>0.52</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>353</v>
       </c>
       <c r="B43">
-        <v>0.4634655532359082</v>
+        <v>0.5323741007194245</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>354</v>
       </c>
       <c r="B44">
-        <v>0.4680306905370844</v>
+        <v>0.5170454545454546</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>355</v>
       </c>
       <c r="B45">
-        <v>0.4539325842696629</v>
+        <v>0.5126903553299492</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>356</v>
       </c>
       <c r="B46">
-        <v>0.3996960486322189</v>
+        <v>0.4558058925476603</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>357</v>
       </c>
       <c r="B47">
-        <v>0.4679245283018868</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>358</v>
       </c>
       <c r="B48">
-        <v>0.4819277108433735</v>
+        <v>0.5194805194805194</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>359</v>
       </c>
       <c r="B49">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>360</v>
       </c>
       <c r="B50">
-        <v>0.4131736526946108</v>
+        <v>0.4815465729349737</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>361</v>
       </c>
       <c r="B51">
-        <v>0.4361233480176211</v>
+        <v>0.5025380710659898</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>362</v>
       </c>
       <c r="B52">
-        <v>0.4682926829268293</v>
+        <v>0.5485714285714286</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>363</v>
       </c>
       <c r="B53">
-        <v>0.5130260521042084</v>
+        <v>0.5727069351230425</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>364</v>
       </c>
       <c r="B54">
-        <v>0.5294117647058824</v>
+        <v>0.6059322033898306</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>365</v>
       </c>
       <c r="B55">
-        <v>0.4836601307189543</v>
+        <v>0.5634517766497462</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>366</v>
       </c>
       <c r="B56">
-        <v>0.5789473684210527</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>367</v>
       </c>
       <c r="B57">
-        <v>0.452914798206278</v>
+        <v>0.5489130434782609</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>368</v>
       </c>
       <c r="B58">
-        <v>0.5042016806722689</v>
+        <v>0.5410334346504559</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>369</v>
       </c>
       <c r="B59">
-        <v>0.4072164948453608</v>
+        <v>0.5107758620689655</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>370</v>
       </c>
       <c r="B60">
-        <v>0.478448275862069</v>
+        <v>0.5362318840579711</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>371</v>
       </c>
       <c r="B61">
-        <v>0.4444444444444444</v>
+        <v>0.5496183206106871</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>372</v>
       </c>
       <c r="B62">
-        <v>0.4487179487179487</v>
+        <v>0.5363984674329502</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>373</v>
       </c>
       <c r="B63">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>374</v>
       </c>
       <c r="B64">
-        <v>0.4681528662420382</v>
+        <v>0.5268817204301075</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>375</v>
       </c>
       <c r="B65">
-        <v>0.5769230769230769</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>376</v>
       </c>
       <c r="B66">
-        <v>0.5507246376811594</v>
+        <v>0.6007905138339921</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>377</v>
       </c>
       <c r="B67">
-        <v>0.4819277108433735</v>
+        <v>0.5128205128205128</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>378</v>
       </c>
       <c r="B68">
-        <v>0.4853333333333333</v>
+        <v>0.5352941176470588</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>379</v>
       </c>
       <c r="B69">
-        <v>0.4615384615384616</v>
+        <v>0.5116279069767442</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>380</v>
       </c>
       <c r="B70">
-        <v>0.4675675675675676</v>
+        <v>0.5323076923076923</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>381</v>
       </c>
       <c r="B71">
-        <v>0.512</v>
+        <v>0.616504854368932</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>382</v>
       </c>
       <c r="B72">
-        <v>0.5140562248995983</v>
+        <v>0.6124401913875598</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>383</v>
       </c>
       <c r="B73">
-        <v>0.4682539682539683</v>
+        <v>0.5175438596491229</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>384</v>
       </c>
       <c r="B74">
-        <v>0.4752475247524752</v>
+        <v>0.5313653136531366</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>385</v>
       </c>
       <c r="B75">
-        <v>0.4754098360655737</v>
+        <v>0.5404984423676013</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>386</v>
       </c>
       <c r="B76">
-        <v>0.44921875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>387</v>
       </c>
       <c r="B77">
-        <v>0.4554140127388535</v>
+        <v>0.5375939849624061</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>388</v>
       </c>
       <c r="B78">
-        <v>0.4888268156424581</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>389</v>
       </c>
       <c r="B79">
-        <v>0.5055762081784386</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>390</v>
       </c>
       <c r="B80">
-        <v>0.512280701754386</v>
+        <v>0.5934959349593496</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>391</v>
       </c>
       <c r="B81">
-        <v>0.6363636363636364</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>392</v>
       </c>
       <c r="B82">
-        <v>0.4748010610079575</v>
+        <v>0.557632398753894</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>393</v>
       </c>
       <c r="B83">
-        <v>0.6031746031746031</v>
+        <v>0.6826347305389222</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>394</v>
       </c>
       <c r="B84">
-        <v>0.4571026722925457</v>
+        <v>0.5142405063291139</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>395</v>
       </c>
       <c r="B85">
-        <v>0.4086629001883239</v>
+        <v>0.4800884955752213</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>396</v>
       </c>
       <c r="B86">
-        <v>0.4813895781637717</v>
+        <v>0.5672514619883041</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>397</v>
       </c>
       <c r="B87">
-        <v>0.4690721649484536</v>
+        <v>0.5055555555555555</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>398</v>
       </c>
       <c r="B88">
-        <v>0.4036363636363636</v>
+        <v>0.4723404255319149</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>399</v>
       </c>
       <c r="B89">
-        <v>0.4755501222493888</v>
+        <v>0.5175202156334232</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>400</v>
       </c>
       <c r="B90">
-        <v>0.4567723342939481</v>
+        <v>0.5154471544715448</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>401</v>
       </c>
       <c r="B91">
-        <v>0.5666666666666667</v>
+        <v>0.6296296296296297</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>402</v>
       </c>
       <c r="B92">
-        <v>0.4191176470588235</v>
+        <v>0.4816901408450704</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>403</v>
       </c>
       <c r="B93">
-        <v>0.4342629482071713</v>
+        <v>0.5030959752321982</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>404</v>
       </c>
       <c r="B94">
-        <v>0.5204301075268817</v>
+        <v>0.5707547169811321</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>405</v>
       </c>
       <c r="B95">
-        <v>0.503727369542066</v>
+        <v>0.5942211055276382</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>406</v>
       </c>
       <c r="B96">
-        <v>0.4453125</v>
+        <v>0.4967177242888403</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>407</v>
       </c>
       <c r="B97">
-        <v>0.4212076583210604</v>
+        <v>0.4872231686541738</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>408</v>
       </c>
       <c r="B98">
-        <v>0.4487179487179487</v>
+        <v>0.498220640569395</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>409</v>
       </c>
       <c r="B99">
-        <v>0.4379194630872483</v>
+        <v>0.509765625</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>410</v>
       </c>
       <c r="B100">
-        <v>0.4481981981981982</v>
+        <v>0.4975</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>411</v>
       </c>
       <c r="B101">
-        <v>0.4025157232704403</v>
+        <v>0.4522968197879859</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>412</v>
       </c>
       <c r="B102">
-        <v>0.4482758620689655</v>
+        <v>0.4940476190476191</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>413</v>
       </c>
       <c r="B103">
-        <v>0.5011547344110855</v>
+        <v>0.5864864864864865</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>414</v>
       </c>
       <c r="B104">
-        <v>0.4814814814814815</v>
+        <v>0.5378787878787878</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>415</v>
       </c>
       <c r="B105">
-        <v>0.5135135135135135</v>
+        <v>0.5846153846153846</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>416</v>
       </c>
       <c r="B106">
-        <v>0.4259259259259259</v>
+        <v>0.4946236559139785</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>417</v>
       </c>
       <c r="B107">
-        <v>0.4878892733564014</v>
+        <v>0.5361216730038023</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>418</v>
       </c>
       <c r="B108">
-        <v>0.5298507462686567</v>
+        <v>0.6120689655172413</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>419</v>
       </c>
       <c r="B109">
-        <v>0.4565217391304348</v>
+        <v>0.5121951219512195</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>420</v>
       </c>
       <c r="B110">
-        <v>0.4379947229551451</v>
+        <v>0.5271565495207667</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>421</v>
       </c>
       <c r="B111">
-        <v>0.4887780548628429</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>422</v>
       </c>
       <c r="B112">
-        <v>0.4964664310954063</v>
+        <v>0.5630081300813008</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>423</v>
       </c>
       <c r="B113">
-        <v>0.5274847307051638</v>
+        <v>0.5885643256681169</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>424</v>
       </c>
       <c r="B114">
-        <v>0.4594594594594595</v>
+        <v>0.5230769230769231</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>425</v>
       </c>
       <c r="B115">
-        <v>0.4733333333333333</v>
+        <v>0.5233415233415234</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>426</v>
       </c>
       <c r="B116">
-        <v>0.4886363636363636</v>
+        <v>0.5477707006369427</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>427</v>
       </c>
       <c r="B117">
-        <v>0.4814126394052045</v>
+        <v>0.5682819383259912</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>428</v>
       </c>
       <c r="B118">
-        <v>0.5181818181818182</v>
+        <v>0.5979020979020979</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>429</v>
       </c>
       <c r="B119">
-        <v>0.506578947368421</v>
+        <v>0.5579710144927537</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>430</v>
       </c>
       <c r="B120">
-        <v>0.4886363636363636</v>
+        <v>0.5477707006369427</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>431</v>
       </c>
       <c r="B121">
-        <v>0.4699300699300699</v>
+        <v>0.5233644859813084</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>432</v>
       </c>
       <c r="B122">
-        <v>0.4602609727164887</v>
+        <v>0.5528571428571428</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>433</v>
       </c>
       <c r="B123">
-        <v>0.4970059880239521</v>
+        <v>0.5463576158940397</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>434</v>
       </c>
       <c r="B124">
-        <v>0.5168831168831168</v>
+        <v>0.5875370919881305</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>435</v>
       </c>
       <c r="B125">
-        <v>0.545774647887324</v>
+        <v>0.5942307692307692</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>436</v>
       </c>
       <c r="B126">
-        <v>0.5097613882863341</v>
+        <v>0.5679611650485437</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>437</v>
       </c>
       <c r="B127">
-        <v>0.5228215767634855</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>438</v>
       </c>
       <c r="B128">
-        <v>0.4761904761904762</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>439</v>
       </c>
       <c r="B129">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>440</v>
       </c>
       <c r="B130">
-        <v>0.5217391304347826</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>441</v>
       </c>
       <c r="B131">
-        <v>0.4761904761904762</v>
+        <v>0.5497630331753555</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>442</v>
       </c>
       <c r="B132">
-        <v>0.425</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>443</v>
       </c>
       <c r="B133">
-        <v>0.4953703703703703</v>
+        <v>0.5602094240837696</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>444</v>
       </c>
       <c r="B134">
-        <v>0.5714285714285714</v>
+        <v>0.6206896551724138</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>445</v>
       </c>
       <c r="B135">
-        <v>0.4452122408687068</v>
+        <v>0.5040091638029782</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>446</v>
       </c>
       <c r="B136">
-        <v>0.5013333333333333</v>
+        <v>0.5565476190476191</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>447</v>
       </c>
       <c r="B137">
-        <v>0.4040816326530612</v>
+        <v>0.4593301435406699</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>448</v>
       </c>
       <c r="B138">
-        <v>0.5144694533762058</v>
+        <v>0.5658362989323843</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>449</v>
       </c>
       <c r="B139">
-        <v>0.4630872483221476</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>450</v>
       </c>
       <c r="B140">
-        <v>0.4083333333333333</v>
+        <v>0.4757281553398058</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>451</v>
       </c>
       <c r="B141">
-        <v>0.4886363636363636</v>
+        <v>0.5477707006369427</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>452</v>
       </c>
       <c r="B142">
-        <v>0.4974093264248705</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>453</v>
       </c>
       <c r="B143">
-        <v>0.4911504424778761</v>
+        <v>0.5577889447236181</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>454</v>
       </c>
       <c r="B144">
-        <v>0.4750733137829912</v>
+        <v>0.5192307692307693</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>455</v>
       </c>
       <c r="B145">
-        <v>0.467204843592331</v>
+        <v>0.5099118942731278</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>456</v>
       </c>
       <c r="B146">
-        <v>0.4567307692307692</v>
+        <v>0.5080213903743316</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>457</v>
       </c>
       <c r="B147">
-        <v>0.5035714285714286</v>
+        <v>0.5691056910569106</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>458</v>
       </c>
       <c r="B148">
-        <v>0.4046822742474916</v>
+        <v>0.4989690721649485</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>459</v>
       </c>
       <c r="B149">
-        <v>0.5107913669064749</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>460</v>
       </c>
       <c r="B150">
-        <v>0.4745196324143692</v>
+        <v>0.5363550519357885</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>461</v>
       </c>
       <c r="B151">
-        <v>0.5451851851851852</v>
+        <v>0.6192893401015228</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>462</v>
       </c>
       <c r="B152">
-        <v>0.4207119741100324</v>
+        <v>0.4676258992805755</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>463</v>
       </c>
       <c r="B153">
-        <v>0.5115207373271889</v>
+        <v>0.5873015873015873</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>464</v>
       </c>
       <c r="B154">
-        <v>0.4848484848484849</v>
+        <v>0.5521235521235521</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>465</v>
       </c>
       <c r="B155">
-        <v>0.5024630541871922</v>
+        <v>0.5698324022346368</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>466</v>
       </c>
       <c r="B156">
-        <v>0.4615384615384616</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>467</v>
       </c>
       <c r="B157">
-        <v>0.508682328907048</v>
+        <v>0.5759717314487632</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>468</v>
       </c>
       <c r="B158">
-        <v>0.4266666666666667</v>
+        <v>0.4923076923076923</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>469</v>
       </c>
       <c r="B159">
-        <v>0.5720164609053497</v>
+        <v>0.6289592760180995</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>470</v>
       </c>
       <c r="B160">
-        <v>0.5833333333333334</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>471</v>
       </c>
       <c r="B161">
-        <v>0.5938461538461538</v>
+        <v>0.6713286713286714</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>472</v>
       </c>
       <c r="B162">
-        <v>0.5537190082644629</v>
+        <v>0.6534653465346535</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>473</v>
       </c>
       <c r="B163">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>474</v>
       </c>
       <c r="B164">
-        <v>0.5357142857142857</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>475</v>
       </c>
       <c r="B165">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>476</v>
       </c>
       <c r="B166">
-        <v>0.3157894736842105</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>477</v>
       </c>
       <c r="B167">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>478</v>
       </c>
       <c r="B168">
-        <v>0.5652173913043478</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>479</v>
       </c>
       <c r="B169">
-        <v>0.4181818181818182</v>
+        <v>0.4791666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>480</v>
       </c>
       <c r="B170">
-        <v>0.5401069518716578</v>
+        <v>0.6461038961038961</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>481</v>
       </c>
       <c r="B171">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>482</v>
       </c>
       <c r="B172">
-        <v>0.5149006622516556</v>
+        <v>0.5827067669172933</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>483</v>
       </c>
       <c r="B173">
-        <v>0.4979253112033195</v>
+        <v>0.5633802816901409</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>484</v>
       </c>
       <c r="B174">
-        <v>0.4838709677419355</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>485</v>
       </c>
       <c r="B175">
-        <v>0.5054054054054054</v>
+        <v>0.5574425574425574</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>486</v>
       </c>
       <c r="B176">
-        <v>0.476</v>
+        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>487</v>
       </c>
       <c r="B177">
-        <v>0.7222222222222222</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>488</v>
       </c>
       <c r="B178">
-        <v>0.5277777777777778</v>
+        <v>0.598159509202454</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>489</v>
       </c>
       <c r="B179">
-        <v>0.4230769230769231</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>490</v>
       </c>
       <c r="B180">
-        <v>0.4325396825396826</v>
+        <v>0.4780701754385965</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>491</v>
       </c>
       <c r="B181">
-        <v>0.68</v>
+        <v>0.7391304347826086</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>492</v>
       </c>
       <c r="B182">
-        <v>0.4782608695652174</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>493</v>
       </c>
       <c r="B183">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>494</v>
       </c>
       <c r="B184">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>495</v>
       </c>
       <c r="B185">
-        <v>0.5600000000000001</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>496</v>
       </c>
       <c r="B186">
-        <v>0.48</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>497</v>
       </c>
       <c r="B187">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>498</v>
       </c>
       <c r="B188">
-        <v>0.4836879432624113</v>
+        <v>0.5448717948717948</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>499</v>
       </c>
       <c r="B189">
-        <v>0.4411764705882353</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>500</v>
       </c>
       <c r="B190">
-        <v>0.5416666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>501</v>
       </c>
       <c r="B191">
-        <v>0.5068027210884354</v>
+        <v>0.5758754863813229</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>502</v>
       </c>
       <c r="B192">
-        <v>0.5161290322580645</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>503</v>
       </c>
       <c r="B193">
-        <v>0.4782608695652174</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>504</v>
       </c>
       <c r="B194">
-        <v>0.5714285714285714</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>505</v>
       </c>
       <c r="B195">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>506</v>
       </c>
       <c r="B196">
-        <v>0.5075268817204301</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>507</v>
       </c>
       <c r="B197">
-        <v>0.5172413793103449</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>508</v>
       </c>
       <c r="B198">
-        <v>0.3666666666666666</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>509</v>
       </c>
       <c r="B199">
-        <v>0.5</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>510</v>
       </c>
       <c r="B200">
-        <v>0.4482758620689655</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>511</v>
       </c>
       <c r="B201">
-        <v>0.5625</v>
+        <v>0.6279069767441861</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>512</v>
       </c>
       <c r="B202">
-        <v>0.6</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>513</v>
       </c>
       <c r="B203">
-        <v>0.4663461538461539</v>
+        <v>0.5079365079365079</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>514</v>
       </c>
       <c r="B204">
-        <v>0.4666666666666667</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>515</v>
       </c>
       <c r="B205">
-        <v>0.4571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>516</v>
       </c>
       <c r="B206">
-        <v>0.4090909090909091</v>
+        <v>0.4811827956989247</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>517</v>
       </c>
       <c r="B207">
-        <v>0.4392857142857143</v>
+        <v>0.4959677419354839</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>518</v>
       </c>
       <c r="B208">
-        <v>0.46875</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>519</v>
       </c>
       <c r="B209">
-        <v>0.6206896551724138</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>520</v>
       </c>
       <c r="B210">
-        <v>0.5</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>521</v>
       </c>
       <c r="B211">
-        <v>0.5393759286775631</v>
+        <v>0.6060100166944908</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>522</v>
       </c>
       <c r="B212">
-        <v>0.4840834248079034</v>
+        <v>0.5431034482758621</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>523</v>
       </c>
       <c r="B213">
-        <v>0.5555555555555556</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>524</v>
       </c>
       <c r="B214">
-        <v>0.4924953095684803</v>
+        <v>0.5362840967575914</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>525</v>
       </c>
       <c r="B215">
-        <v>0.4493243243243243</v>
+        <v>0.5050761421319797</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>526</v>
       </c>
       <c r="B216">
-        <v>0.4137931034482759</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>527</v>
       </c>
       <c r="B217">
-        <v>0.6059113300492611</v>
+        <v>0.6759776536312849</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>528</v>
       </c>
       <c r="B218">
-        <v>0.6296296296296297</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>529</v>
       </c>
       <c r="B219">
-        <v>0.4365079365079365</v>
+        <v>0.497737556561086</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>530</v>
       </c>
       <c r="B220">
-        <v>0.4697406340057637</v>
+        <v>0.5397350993377483</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>531</v>
       </c>
       <c r="B221">
-        <v>0.5714285714285714</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>532</v>
       </c>
       <c r="B222">
-        <v>0.4718498659517426</v>
+        <v>0.5225225225225225</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>533</v>
       </c>
       <c r="B223">
-        <v>0.5141361256544502</v>
+        <v>0.5729665071770335</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>534</v>
       </c>
       <c r="B224">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
   </sheetData>
@@ -5317,7 +5317,7 @@
         <v>535</v>
       </c>
       <c r="B2">
-        <v>0.5567226890756303</v>
+        <v>0.6324582338902148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5325,7 +5325,7 @@
         <v>536</v>
       </c>
       <c r="B3">
-        <v>0.5068119891008175</v>
+        <v>0.5727554179566563</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5333,7 +5333,7 @@
         <v>537</v>
       </c>
       <c r="B4">
-        <v>0.4633596392333709</v>
+        <v>0.5150564617314931</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5341,7 +5341,7 @@
         <v>538</v>
       </c>
       <c r="B5">
-        <v>0.4651162790697674</v>
+        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5349,7 +5349,7 @@
         <v>539</v>
       </c>
       <c r="B6">
-        <v>0.4150943396226415</v>
+        <v>0.4748201438848921</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>540</v>
       </c>
       <c r="B7">
-        <v>0.575</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5365,7 +5365,7 @@
         <v>541</v>
       </c>
       <c r="B8">
-        <v>0.5454545454545454</v>
+        <v>0.6206896551724138</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>542</v>
       </c>
       <c r="B9">
-        <v>0.4685212298682284</v>
+        <v>0.517799352750809</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5381,7 +5381,7 @@
         <v>543</v>
       </c>
       <c r="B10">
-        <v>0.4911764705882353</v>
+        <v>0.5369774919614148</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5389,7 +5389,7 @@
         <v>544</v>
       </c>
       <c r="B11">
-        <v>0.5204778156996587</v>
+        <v>0.5976331360946746</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5397,7 +5397,7 @@
         <v>545</v>
       </c>
       <c r="B12">
-        <v>0.4905660377358491</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5405,7 +5405,7 @@
         <v>546</v>
       </c>
       <c r="B13">
-        <v>0.5127942681678608</v>
+        <v>0.5914489311163895</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5413,7 +5413,7 @@
         <v>547</v>
       </c>
       <c r="B14">
-        <v>0.4858536585365854</v>
+        <v>0.5486725663716814</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>548</v>
       </c>
       <c r="B15">
-        <v>0.4832116788321168</v>
+        <v>0.5474209650582362</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5429,7 +5429,7 @@
         <v>549</v>
       </c>
       <c r="B16">
-        <v>0.5063469675599436</v>
+        <v>0.5609375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5437,7 +5437,7 @@
         <v>550</v>
       </c>
       <c r="B17">
-        <v>0.4373865698729583</v>
+        <v>0.5331858407079646</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>551</v>
       </c>
       <c r="B18">
-        <v>0.4551724137931035</v>
+        <v>0.5219123505976095</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>552</v>
       </c>
       <c r="B19">
-        <v>0.4437869822485207</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5461,7 +5461,7 @@
         <v>553</v>
       </c>
       <c r="B20">
-        <v>0.3870967741935484</v>
+        <v>0.4528301886792453</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5469,7 +5469,7 @@
         <v>554</v>
       </c>
       <c r="B21">
-        <v>0.5732899022801303</v>
+        <v>0.6308243727598566</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>555</v>
       </c>
       <c r="B22">
-        <v>0.4897959183673469</v>
+        <v>0.5565217391304348</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>556</v>
       </c>
       <c r="B23">
-        <v>0.4769647696476965</v>
+        <v>0.5635179153094463</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>557</v>
       </c>
       <c r="B24">
-        <v>0.5058448459086079</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5501,7 +5501,7 @@
         <v>558</v>
       </c>
       <c r="B25">
-        <v>0.4482758620689655</v>
+        <v>0.5064935064935064</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5509,7 +5509,7 @@
         <v>559</v>
       </c>
       <c r="B26">
-        <v>0.4878048780487805</v>
+        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5517,7 +5517,7 @@
         <v>560</v>
       </c>
       <c r="B27">
-        <v>0.484593837535014</v>
+        <v>0.5372670807453416</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5525,7 +5525,7 @@
         <v>561</v>
       </c>
       <c r="B28">
-        <v>0.491304347826087</v>
+        <v>0.5355450236966824</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5533,7 +5533,7 @@
         <v>562</v>
       </c>
       <c r="B29">
-        <v>0.5414012738853503</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5541,7 +5541,7 @@
         <v>563</v>
       </c>
       <c r="B30">
-        <v>0.4536082474226804</v>
+        <v>0.5486284289276808</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5549,7 +5549,7 @@
         <v>564</v>
       </c>
       <c r="B31">
-        <v>0.4719710669077758</v>
+        <v>0.5252525252525253</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5557,7 +5557,7 @@
         <v>565</v>
       </c>
       <c r="B32">
-        <v>0.5119760479041916</v>
+        <v>0.5681063122923588</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5565,7 +5565,7 @@
         <v>566</v>
       </c>
       <c r="B33">
-        <v>0.5088757396449705</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5573,7 +5573,7 @@
         <v>567</v>
       </c>
       <c r="B34">
-        <v>0.4892915980230643</v>
+        <v>0.5681381957773513</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5581,7 +5581,7 @@
         <v>568</v>
       </c>
       <c r="B35">
-        <v>0.5245683930942895</v>
+        <v>0.5703918722786647</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5589,7 +5589,7 @@
         <v>569</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>0.5363128491620112</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5597,7 +5597,7 @@
         <v>570</v>
       </c>
       <c r="B37">
-        <v>0.4352941176470588</v>
+        <v>0.5274949083503055</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5605,7 +5605,7 @@
         <v>571</v>
       </c>
       <c r="B38">
-        <v>0.5077452667814114</v>
+        <v>0.5619047619047619</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5613,7 +5613,7 @@
         <v>572</v>
       </c>
       <c r="B39">
-        <v>0.5406779661016949</v>
+        <v>0.6207233626588465</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5621,7 +5621,7 @@
         <v>573</v>
       </c>
       <c r="B40">
-        <v>0.4356846473029046</v>
+        <v>0.5109489051094891</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5629,7 +5629,7 @@
         <v>574</v>
       </c>
       <c r="B41">
-        <v>0.4615384615384616</v>
+        <v>0.5307692307692308</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5637,7 +5637,7 @@
         <v>575</v>
       </c>
       <c r="B42">
-        <v>0.5431034482758621</v>
+        <v>0.6073500967117988</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5645,7 +5645,7 @@
         <v>576</v>
       </c>
       <c r="B43">
-        <v>0.4676850763807285</v>
+        <v>0.536986301369863</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5653,7 +5653,7 @@
         <v>577</v>
       </c>
       <c r="B44">
-        <v>0.4956268221574344</v>
+        <v>0.6028368794326241</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5661,7 +5661,7 @@
         <v>578</v>
       </c>
       <c r="B45">
-        <v>0.5108303249097473</v>
+        <v>0.5847107438016529</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5669,7 +5669,7 @@
         <v>579</v>
       </c>
       <c r="B46">
-        <v>0.4427244582043344</v>
+        <v>0.5276752767527675</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5677,7 +5677,7 @@
         <v>580</v>
       </c>
       <c r="B47">
-        <v>0.5388127853881278</v>
+        <v>0.6724137931034483</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5685,7 +5685,7 @@
         <v>581</v>
       </c>
       <c r="B48">
-        <v>0.508695652173913</v>
+        <v>0.5954198473282443</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5693,7 +5693,7 @@
         <v>582</v>
       </c>
       <c r="B49">
-        <v>0.4849462365591398</v>
+        <v>0.5394736842105263</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5701,7 +5701,7 @@
         <v>583</v>
       </c>
       <c r="B50">
-        <v>0.5634674922600619</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5709,7 +5709,7 @@
         <v>584</v>
       </c>
       <c r="B51">
-        <v>0.4363636363636363</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5717,7 +5717,7 @@
         <v>585</v>
       </c>
       <c r="B52">
-        <v>0.4838709677419355</v>
+        <v>0.5325443786982249</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5725,7 +5725,7 @@
         <v>586</v>
       </c>
       <c r="B53">
-        <v>0.4741833508956796</v>
+        <v>0.5276145710928319</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5733,7 +5733,7 @@
         <v>587</v>
       </c>
       <c r="B54">
-        <v>0.4758522727272727</v>
+        <v>0.5475409836065573</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5741,7 +5741,7 @@
         <v>588</v>
       </c>
       <c r="B55">
-        <v>0.4381868131868132</v>
+        <v>0.5325542570951586</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5749,7 +5749,7 @@
         <v>589</v>
       </c>
       <c r="B56">
-        <v>0.3890909090909091</v>
+        <v>0.4830699774266365</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5757,7 +5757,7 @@
         <v>590</v>
       </c>
       <c r="B57">
-        <v>0.5275590551181102</v>
+        <v>0.5702005730659025</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5765,7 +5765,7 @@
         <v>591</v>
       </c>
       <c r="B58">
-        <v>0.4313186813186813</v>
+        <v>0.5032051282051282</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5773,7 +5773,7 @@
         <v>592</v>
       </c>
       <c r="B59">
-        <v>0.489010989010989</v>
+        <v>0.5538221528861155</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5781,7 +5781,7 @@
         <v>593</v>
       </c>
       <c r="B60">
-        <v>0.5242718446601942</v>
+        <v>0.5827338129496403</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5789,7 +5789,7 @@
         <v>594</v>
       </c>
       <c r="B61">
-        <v>0.4090909090909091</v>
+        <v>0.4550561797752809</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5797,7 +5797,7 @@
         <v>595</v>
       </c>
       <c r="B62">
-        <v>0.4806131650135257</v>
+        <v>0.5262116716122651</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5805,7 +5805,7 @@
         <v>596</v>
       </c>
       <c r="B63">
-        <v>0.425531914893617</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5813,7 +5813,7 @@
         <v>597</v>
       </c>
       <c r="B64">
-        <v>0.5253012048192771</v>
+        <v>0.6085106382978723</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5821,7 +5821,7 @@
         <v>598</v>
       </c>
       <c r="B65">
-        <v>0.4694444444444444</v>
+        <v>0.5216049382716049</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5829,7 +5829,7 @@
         <v>599</v>
       </c>
       <c r="B66">
-        <v>0.4826589595375723</v>
+        <v>0.5778546712802768</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5837,7 +5837,7 @@
         <v>600</v>
       </c>
       <c r="B67">
-        <v>0.4725274725274725</v>
+        <v>0.5182186234817814</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>601</v>
       </c>
       <c r="B68">
-        <v>0.4654654654654655</v>
+        <v>0.5432242990654206</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>602</v>
       </c>
       <c r="B69">
-        <v>0.4703087885985748</v>
+        <v>0.5226666666666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>603</v>
       </c>
       <c r="B70">
-        <v>0.5031847133757962</v>
+        <v>0.5467128027681661</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>604</v>
       </c>
       <c r="B71">
-        <v>0.4634146341463415</v>
+        <v>0.5507246376811594</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>605</v>
       </c>
       <c r="B72">
-        <v>0.5691056910569106</v>
+        <v>0.6422018348623854</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>606</v>
       </c>
       <c r="B73">
-        <v>0.4813278008298755</v>
+        <v>0.5296803652968036</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>607</v>
       </c>
       <c r="B74">
-        <v>0.4458333333333334</v>
+        <v>0.5144230769230769</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>608</v>
       </c>
       <c r="B75">
-        <v>0.4830508474576271</v>
+        <v>0.5352112676056338</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>609</v>
       </c>
       <c r="B76">
-        <v>0.4947368421052631</v>
+        <v>0.5664939550949913</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>610</v>
       </c>
       <c r="B77">
-        <v>0.4985754985754986</v>
+        <v>0.5559105431309904</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>611</v>
       </c>
       <c r="B78">
-        <v>0.4615384615384616</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>612</v>
       </c>
       <c r="B79">
-        <v>0.4960159362549801</v>
+        <v>0.5595505617977528</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>613</v>
       </c>
       <c r="B80">
-        <v>0.5066505441354293</v>
+        <v>0.5595716198125836</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>614</v>
       </c>
       <c r="B81">
-        <v>0.5099337748344371</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>615</v>
       </c>
       <c r="B82">
-        <v>0.5011655011655012</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>616</v>
       </c>
       <c r="B83">
-        <v>0.5068493150684932</v>
+        <v>0.5803921568627451</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>617</v>
       </c>
       <c r="B84">
-        <v>0.4288702928870293</v>
+        <v>0.4846335697399527</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>618</v>
       </c>
       <c r="B85">
-        <v>0.4828660436137072</v>
+        <v>0.5308219178082192</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>619</v>
       </c>
       <c r="B86">
-        <v>0.4358974358974359</v>
+        <v>0.5134228187919463</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>620</v>
       </c>
       <c r="B87">
-        <v>0.5382003395585738</v>
+        <v>0.6030534351145038</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>621</v>
       </c>
       <c r="B88">
-        <v>0.5254237288135594</v>
+        <v>0.5857220118983234</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>622</v>
       </c>
       <c r="B89">
-        <v>0.5519125683060109</v>
+        <v>0.6253869969040248</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>623</v>
       </c>
       <c r="B90">
-        <v>0.5</v>
+        <v>0.5681818181818182</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>624</v>
       </c>
       <c r="B91">
-        <v>0.4807692307692308</v>
+        <v>0.5319148936170213</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>625</v>
       </c>
       <c r="B92">
-        <v>0.5089722675367048</v>
+        <v>0.5644283121597096</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>626</v>
       </c>
       <c r="B93">
-        <v>0.4716981132075472</v>
+        <v>0.5319148936170213</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>627</v>
       </c>
       <c r="B94">
-        <v>0.4901960784313725</v>
+        <v>0.5813953488372093</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>628</v>
       </c>
       <c r="B95">
-        <v>0.5588235294117647</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>629</v>
       </c>
       <c r="B96">
-        <v>0.5849056603773585</v>
+        <v>0.6739130434782609</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6077,7 +6077,7 @@
         <v>630</v>
       </c>
       <c r="B97">
-        <v>0.5849056603773585</v>
+        <v>0.6739130434782609</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6085,7 +6085,7 @@
         <v>631</v>
       </c>
       <c r="B98">
-        <v>0.5412262156448203</v>
+        <v>0.5902777777777778</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -6093,7 +6093,7 @@
         <v>632</v>
       </c>
       <c r="B99">
-        <v>0.4333333333333333</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -6101,7 +6101,7 @@
         <v>633</v>
       </c>
       <c r="B100">
-        <v>0.5744125326370757</v>
+        <v>0.6528189910979229</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6109,7 +6109,7 @@
         <v>634</v>
       </c>
       <c r="B101">
-        <v>0.4181818181818182</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -6117,7 +6117,7 @@
         <v>635</v>
       </c>
       <c r="B102">
-        <v>0.4919354838709677</v>
+        <v>0.5507692307692308</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6125,7 +6125,7 @@
         <v>636</v>
       </c>
       <c r="B103">
-        <v>0.5652173913043478</v>
+        <v>0.5952380952380952</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -6133,7 +6133,7 @@
         <v>637</v>
       </c>
       <c r="B104">
-        <v>0.5355029585798816</v>
+        <v>0.5915032679738562</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6141,7 +6141,7 @@
         <v>638</v>
       </c>
       <c r="B105">
-        <v>0.3809523809523809</v>
+        <v>0.4528301886792453</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -6149,7 +6149,7 @@
         <v>639</v>
       </c>
       <c r="B106">
-        <v>0.5</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -6157,7 +6157,7 @@
         <v>640</v>
       </c>
       <c r="B107">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -6165,7 +6165,7 @@
         <v>641</v>
       </c>
       <c r="B108">
-        <v>0.4912280701754386</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -6173,7 +6173,7 @@
         <v>642</v>
       </c>
       <c r="B109">
-        <v>0.459016393442623</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -6181,7 +6181,7 @@
         <v>643</v>
       </c>
       <c r="B110">
-        <v>0.4482758620689655</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -6189,7 +6189,7 @@
         <v>644</v>
       </c>
       <c r="B111">
-        <v>0.4666666666666667</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -6197,7 +6197,7 @@
         <v>645</v>
       </c>
       <c r="B112">
-        <v>0.4705882352941176</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6205,7 +6205,7 @@
         <v>646</v>
       </c>
       <c r="B113">
-        <v>0.3684210526315789</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6213,7 +6213,7 @@
         <v>647</v>
       </c>
       <c r="B114">
-        <v>0.40625</v>
+        <v>0.4905660377358491</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -6221,7 +6221,7 @@
         <v>648</v>
       </c>
       <c r="B115">
-        <v>0.5649122807017544</v>
+        <v>0.6106870229007634</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -6229,7 +6229,7 @@
         <v>649</v>
       </c>
       <c r="B116">
-        <v>0.3421052631578947</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -6237,7 +6237,7 @@
         <v>650</v>
       </c>
       <c r="B117">
-        <v>0.4516129032258064</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -6245,7 +6245,7 @@
         <v>651</v>
       </c>
       <c r="B118">
-        <v>0.52</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -6253,7 +6253,7 @@
         <v>652</v>
       </c>
       <c r="B119">
-        <v>0.4081632653061225</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -6261,7 +6261,7 @@
         <v>653</v>
       </c>
       <c r="B120">
-        <v>0.4693877551020408</v>
+        <v>0.5227272727272727</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -6269,7 +6269,7 @@
         <v>654</v>
       </c>
       <c r="B121">
-        <v>0.4333333333333333</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -6277,7 +6277,7 @@
         <v>655</v>
       </c>
       <c r="B122">
-        <v>0.4984423676012461</v>
+        <v>0.5470085470085471</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -6285,7 +6285,7 @@
         <v>656</v>
       </c>
       <c r="B123">
-        <v>0.5284552845528455</v>
+        <v>0.5735294117647058</v>
       </c>
     </row>
   </sheetData>
@@ -6462,22 +6462,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="E2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="F2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="G2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="H2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="I2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6488,25 +6488,25 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.4840038070563853</v>
+        <v>0.5615886401154344</v>
       </c>
       <c r="D3">
-        <v>0.01359990838218911</v>
+        <v>0.03381294907418145</v>
       </c>
       <c r="E3">
-        <v>0.4684512428298279</v>
+        <v>0.5364455364455365</v>
       </c>
       <c r="F3">
-        <v>0.4730021598272138</v>
+        <v>0.5413793103448276</v>
       </c>
       <c r="G3">
-        <v>0.4847942754919499</v>
+        <v>0.5489457831325302</v>
       </c>
       <c r="H3">
-        <v>0.4921739130434782</v>
+        <v>0.5615079365079365</v>
       </c>
       <c r="I3">
-        <v>0.5015974440894568</v>
+        <v>0.6196646341463414</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6517,25 +6517,25 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.4751069650497701</v>
+        <v>0.5512245068109846</v>
       </c>
       <c r="D4">
-        <v>0.0218594027506323</v>
+        <v>0.02300404482188481</v>
       </c>
       <c r="E4">
-        <v>0.4380228136882129</v>
+        <v>0.5150214592274678</v>
       </c>
       <c r="F4">
-        <v>0.4588815789473684</v>
+        <v>0.5392405063291139</v>
       </c>
       <c r="G4">
-        <v>0.4736842105263158</v>
+        <v>0.5498676081200353</v>
       </c>
       <c r="H4">
-        <v>0.4890453834115806</v>
+        <v>0.5643802647412756</v>
       </c>
       <c r="I4">
-        <v>0.5148741418764302</v>
+        <v>0.598404255319149</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6546,25 +6546,25 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.5116518206155805</v>
+        <v>0.5816060861211195</v>
       </c>
       <c r="D5">
-        <v>0.04626366192393734</v>
+        <v>0.0596867706000616</v>
       </c>
       <c r="E5">
-        <v>0.4603448275862069</v>
+        <v>0.5253863134657837</v>
       </c>
       <c r="F5">
-        <v>0.4792307605366366</v>
+        <v>0.5427388816181766</v>
       </c>
       <c r="G5">
-        <v>0.4967948717948718</v>
+        <v>0.57625</v>
       </c>
       <c r="H5">
-        <v>0.5307754573417516</v>
+        <v>0.5997351461747746</v>
       </c>
       <c r="I5">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6575,25 +6575,25 @@
         <v>44</v>
       </c>
       <c r="C6">
-        <v>0.5016209606591605</v>
+        <v>0.5670224052586724</v>
       </c>
       <c r="D6">
-        <v>0.02920744625383158</v>
+        <v>0.0340686166016515</v>
       </c>
       <c r="E6">
-        <v>0.4324324324324325</v>
+        <v>0.4883303411131059</v>
       </c>
       <c r="F6">
-        <v>0.4781073617158523</v>
+        <v>0.5447382554129685</v>
       </c>
       <c r="G6">
-        <v>0.5047150010038389</v>
+        <v>0.5732962103999153</v>
       </c>
       <c r="H6">
-        <v>0.5247874091345495</v>
+        <v>0.5904546234672667</v>
       </c>
       <c r="I6">
-        <v>0.5655737704918032</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6604,25 +6604,25 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>0.5004661221090025</v>
+        <v>0.5678497566198477</v>
       </c>
       <c r="D7">
-        <v>0.0331569549699064</v>
+        <v>0.03120593154084847</v>
       </c>
       <c r="E7">
-        <v>0.427906976744186</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="F7">
-        <v>0.4777416470756298</v>
+        <v>0.5530398447108332</v>
       </c>
       <c r="G7">
-        <v>0.5053870778974906</v>
+        <v>0.5626403389907616</v>
       </c>
       <c r="H7">
-        <v>0.5189345234767593</v>
+        <v>0.593492084374863</v>
       </c>
       <c r="I7">
-        <v>0.5741857659831122</v>
+        <v>0.6177248677248677</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6633,25 +6633,25 @@
         <v>61</v>
       </c>
       <c r="C8">
-        <v>0.4937658567175794</v>
+        <v>0.5646094238527468</v>
       </c>
       <c r="D8">
-        <v>0.04719597661818525</v>
+        <v>0.05854481535742471</v>
       </c>
       <c r="E8">
-        <v>0.3852631578947369</v>
+        <v>0.45</v>
       </c>
       <c r="F8">
-        <v>0.4616151545363908</v>
+        <v>0.5306443163960188</v>
       </c>
       <c r="G8">
-        <v>0.4901185770750988</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="H8">
-        <v>0.5212418300653595</v>
+        <v>0.6008583690987125</v>
       </c>
       <c r="I8">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6662,25 +6662,25 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.4863425732651023</v>
+        <v>0.5623524409016698</v>
       </c>
       <c r="D9">
-        <v>0.04019346354743294</v>
+        <v>0.04244574795061027</v>
       </c>
       <c r="E9">
-        <v>0.4117647058823529</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="F9">
-        <v>0.4627241737068327</v>
+        <v>0.5385684708666075</v>
       </c>
       <c r="G9">
-        <v>0.4851181659589875</v>
+        <v>0.5641060046964106</v>
       </c>
       <c r="H9">
-        <v>0.5065164998146088</v>
+        <v>0.5837895377128953</v>
       </c>
       <c r="I9">
-        <v>0.5909090909090909</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6691,25 +6691,25 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>0.4915513598130792</v>
+        <v>0.5430245819149619</v>
       </c>
       <c r="D10">
-        <v>0.04430237610217377</v>
+        <v>0.04071875956504733</v>
       </c>
       <c r="E10">
-        <v>0.4483240223463687</v>
+        <v>0.5031347962382445</v>
       </c>
       <c r="F10">
-        <v>0.462211308520712</v>
+        <v>0.5092274510569359</v>
       </c>
       <c r="G10">
-        <v>0.4791007626474411</v>
+        <v>0.5346384312284356</v>
       </c>
       <c r="H10">
-        <v>0.5082896675945636</v>
+        <v>0.5704705622301971</v>
       </c>
       <c r="I10">
-        <v>0.5681818181818182</v>
+        <v>0.6025641025641025</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6720,25 +6720,25 @@
         <v>91</v>
       </c>
       <c r="C11">
-        <v>0.497753184510655</v>
+        <v>0.5698762834806885</v>
       </c>
       <c r="D11">
-        <v>0.0534022711902521</v>
+        <v>0.05980998820252625</v>
       </c>
       <c r="E11">
-        <v>0.3571428571428572</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="F11">
-        <v>0.4642857142857143</v>
+        <v>0.5327060833753203</v>
       </c>
       <c r="G11">
-        <v>0.4915848527349229</v>
+        <v>0.5634146341463414</v>
       </c>
       <c r="H11">
-        <v>0.5208914690053816</v>
+        <v>0.6065456282847588</v>
       </c>
       <c r="I11">
-        <v>0.7058823529411765</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6749,25 +6749,25 @@
         <v>223</v>
       </c>
       <c r="C12">
-        <v>0.4934251012688716</v>
+        <v>0.5615639030335924</v>
       </c>
       <c r="D12">
-        <v>0.05674972595096691</v>
+        <v>0.06419048632391879</v>
       </c>
       <c r="E12">
-        <v>0.3157894736842105</v>
+        <v>0.35</v>
       </c>
       <c r="F12">
-        <v>0.4593349928876245</v>
+        <v>0.518740297183411</v>
       </c>
       <c r="G12">
-        <v>0.4911504424778761</v>
+        <v>0.5577889447236181</v>
       </c>
       <c r="H12">
-        <v>0.5177115987460815</v>
+        <v>0.5938585202434938</v>
       </c>
       <c r="I12">
-        <v>0.7222222222222222</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6778,25 +6778,25 @@
         <v>122</v>
       </c>
       <c r="C13">
-        <v>0.4867284749152748</v>
+        <v>0.5533830096742246</v>
       </c>
       <c r="D13">
-        <v>0.04773251796976704</v>
+        <v>0.05070744451811767</v>
       </c>
       <c r="E13">
-        <v>0.3421052631578947</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="F13">
-        <v>0.4615384615384616</v>
+        <v>0.5265324807967753</v>
       </c>
       <c r="G13">
-        <v>0.4884079335298848</v>
+        <v>0.5493362831858407</v>
       </c>
       <c r="H13">
-        <v>0.5116896171555805</v>
+        <v>0.5823991969215325</v>
       </c>
       <c r="I13">
-        <v>0.5849056603773585</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -6825,7 +6825,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.4921739130434782</v>
+        <v>0.5615079365079365</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6833,7 +6833,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.4684512428298279</v>
+        <v>0.5489457831325302</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6841,7 +6841,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.4847942754919499</v>
+        <v>0.6196646341463414</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6849,7 +6849,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.4730021598272138</v>
+        <v>0.5364455364455365</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.5015974440894568</v>
+        <v>0.5413793103448276</v>
       </c>
     </row>
   </sheetData>
@@ -6893,7 +6893,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.4864864864864865</v>
+        <v>0.5568627450980392</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6901,7 +6901,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.4917073170731707</v>
+        <v>0.5803468208092486</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6909,7 +6909,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.4562737642585551</v>
+        <v>0.5150214592274678</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6917,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.4380228136882129</v>
+        <v>0.5421002838221382</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6925,7 +6925,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.4466666666666667</v>
+        <v>0.5317460317460317</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6933,7 +6933,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.4618138424821002</v>
+        <v>0.5208613728129206</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6941,7 +6941,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5081967213114754</v>
+        <v>0.5778008298755186</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6949,7 +6949,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.4626593806921676</v>
+        <v>0.5228215767634855</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6957,7 +6957,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.4635958395245171</v>
+        <v>0.5498676081200353</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6965,7 +6965,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.4564755838641189</v>
+        <v>0.5392405063291139</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6973,7 +6973,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.4890453834115806</v>
+        <v>0.5436123348017621</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6981,7 +6981,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.4588815789473684</v>
+        <v>0.5406976744186046</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6989,7 +6989,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.4847645429362881</v>
+        <v>0.5509989484752892</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6997,7 +6997,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.4736842105263158</v>
+        <v>0.5609243697478992</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7005,7 +7005,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.4847161572052402</v>
+        <v>0.5751295336787565</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7013,7 +7013,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.4989539748953975</v>
+        <v>0.5643802647412756</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7021,7 +7021,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.5148741418764302</v>
+        <v>0.598404255319149</v>
       </c>
     </row>
   </sheetData>
@@ -7069,7 +7069,7 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0.4816132858837485</v>
+        <v>0.5450874831763123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7077,7 +7077,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0.5265700483091788</v>
+        <v>0.5891891891891892</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7085,7 +7085,7 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>0.4776699029126213</v>
+        <v>0.5253863134657837</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7093,7 +7093,7 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>0.5305164319248826</v>
+        <v>0.6348314606741573</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7101,7 +7101,7 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>0.5310344827586206</v>
+        <v>0.5796661608497724</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7109,7 +7109,7 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>0.5137614678899083</v>
+        <v>0.5989304812834224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7117,7 +7117,7 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>0.571753986332574</v>
+        <v>0.6352040816326531</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7125,7 +7125,7 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>0.4867469879518072</v>
+        <v>0.5494505494505495</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7133,7 +7133,7 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7141,7 +7141,7 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>0.524822695035461</v>
+        <v>0.5904255319148937</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7149,7 +7149,7 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>0.4845650140318054</v>
+        <v>0.5323741007194245</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7157,7 +7157,7 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>0.5470085470085471</v>
+        <v>0.6336633663366337</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7165,7 +7165,7 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>0.4897260273972603</v>
+        <v>0.5437262357414449</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7173,7 +7173,7 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>0.5441176470588235</v>
+        <v>0.6065573770491803</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7181,7 +7181,7 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>0.4807916181606519</v>
+        <v>0.5281329923273658</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7189,7 +7189,7 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>0.4743589743589743</v>
+        <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7197,7 +7197,7 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>0.5266272189349113</v>
+        <v>0.6005398110661269</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7205,7 +7205,7 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <v>0.4739413680781759</v>
+        <v>0.5262206148282098</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7213,7 +7213,7 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>0.4967948717948718</v>
+        <v>0.57625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7221,7 +7221,7 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>0.4722222222222222</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7229,7 +7229,7 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <v>0.4603448275862069</v>
+        <v>0.5417515274949084</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7237,7 +7237,7 @@
         <v>46</v>
       </c>
       <c r="B23">
-        <v>0.4608830364058869</v>
+        <v>0.531895777178796</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7245,7 +7245,7 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>0.5454545454545454</v>
+        <v>0.5892857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -7299,7 +7299,7 @@
         <v>48</v>
       </c>
       <c r="B2">
-        <v>0.5655737704918032</v>
+        <v>0.6310975609756098</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7307,7 +7307,7 @@
         <v>49</v>
       </c>
       <c r="B3">
-        <v>0.4965612104539202</v>
+        <v>0.554531490015361</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7315,7 +7315,7 @@
         <v>50</v>
       </c>
       <c r="B4">
-        <v>0.4910394265232975</v>
+        <v>0.531496062992126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7323,7 +7323,7 @@
         <v>51</v>
       </c>
       <c r="B5">
-        <v>0.4653465346534654</v>
+        <v>0.5497076023391813</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7331,7 +7331,7 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>0.5311843027330063</v>
+        <v>0.5910867865519938</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7339,7 +7339,7 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <v>0.4644549763033176</v>
+        <v>0.5268817204301075</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7347,7 +7347,7 @@
         <v>54</v>
       </c>
       <c r="B8">
-        <v>0.479957805907173</v>
+        <v>0.5469879518072289</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7355,7 +7355,7 @@
         <v>55</v>
       </c>
       <c r="B9">
-        <v>0.526824034334764</v>
+        <v>0.5790094339622641</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7363,7 +7363,7 @@
         <v>56</v>
       </c>
       <c r="B10">
-        <v>0.4891566265060241</v>
+        <v>0.5272727272727272</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7371,7 +7371,7 @@
         <v>57</v>
       </c>
       <c r="B11">
-        <v>0.5213675213675214</v>
+        <v>0.6135593220338983</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7379,7 +7379,7 @@
         <v>58</v>
       </c>
       <c r="B12">
-        <v>0.4543761638733706</v>
+        <v>0.4989775051124745</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7387,7 +7387,7 @@
         <v>59</v>
       </c>
       <c r="B13">
-        <v>0.5382165605095541</v>
+        <v>0.5847750865051903</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7395,7 +7395,7 @@
         <v>60</v>
       </c>
       <c r="B14">
-        <v>0.5269461077844312</v>
+        <v>0.5852842809364549</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7403,7 +7403,7 @@
         <v>61</v>
       </c>
       <c r="B15">
-        <v>0.5282199710564399</v>
+        <v>0.5902439024390244</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7411,7 +7411,7 @@
         <v>62</v>
       </c>
       <c r="B16">
-        <v>0.508</v>
+        <v>0.5669642857142857</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7419,7 +7419,7 @@
         <v>63</v>
       </c>
       <c r="B17">
-        <v>0.528169014084507</v>
+        <v>0.5859375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7427,7 +7427,7 @@
         <v>64</v>
       </c>
       <c r="B18">
-        <v>0.4539385847797063</v>
+        <v>0.5337519623233909</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7435,7 +7435,7 @@
         <v>65</v>
       </c>
       <c r="B19">
-        <v>0.5079365079365079</v>
+        <v>0.5986696230598669</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7443,7 +7443,7 @@
         <v>66</v>
       </c>
       <c r="B20">
-        <v>0.4758909853249476</v>
+        <v>0.5577395577395577</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7451,7 +7451,7 @@
         <v>67</v>
       </c>
       <c r="B21">
-        <v>0.473551637279597</v>
+        <v>0.5236768802228412</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7459,7 +7459,7 @@
         <v>68</v>
       </c>
       <c r="B22">
-        <v>0.4324324324324325</v>
+        <v>0.4883303411131059</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7467,7 +7467,7 @@
         <v>69</v>
       </c>
       <c r="B23">
-        <v>0.5246376811594203</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7475,7 +7475,7 @@
         <v>70</v>
       </c>
       <c r="B24">
-        <v>0.4671307037896365</v>
+        <v>0.5243478260869565</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7483,7 +7483,7 @@
         <v>71</v>
       </c>
       <c r="B25">
-        <v>0.5070603337612324</v>
+        <v>0.5712209302325582</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7491,7 +7491,7 @@
         <v>72</v>
       </c>
       <c r="B26">
-        <v>0.473365617433414</v>
+        <v>0.538781163434903</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7499,7 +7499,7 @@
         <v>73</v>
       </c>
       <c r="B27">
-        <v>0.5416666666666666</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7507,7 +7507,7 @@
         <v>74</v>
       </c>
       <c r="B28">
-        <v>0.4976744186046512</v>
+        <v>0.5605263157894737</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7515,7 +7515,7 @@
         <v>75</v>
       </c>
       <c r="B29">
-        <v>0.4625322997416021</v>
+        <v>0.5295857988165681</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7523,7 +7523,7 @@
         <v>76</v>
       </c>
       <c r="B30">
-        <v>0.5023696682464455</v>
+        <v>0.5955056179775281</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7531,7 +7531,7 @@
         <v>77</v>
       </c>
       <c r="B31">
-        <v>0.5006877579092159</v>
+        <v>0.5810593900481541</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7539,7 +7539,7 @@
         <v>78</v>
       </c>
       <c r="B32">
-        <v>0.5400593471810089</v>
+        <v>0.5915032679738562</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7547,7 +7547,7 @@
         <v>79</v>
       </c>
       <c r="B33">
-        <v>0.491362763915547</v>
+        <v>0.5467239527389903</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7555,7 +7555,7 @@
         <v>80</v>
       </c>
       <c r="B34">
-        <v>0.514336917562724</v>
+        <v>0.5743380855397149</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7563,7 +7563,7 @@
         <v>81</v>
       </c>
       <c r="B35">
-        <v>0.4626865671641791</v>
+        <v>0.5610859728506787</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7571,7 +7571,7 @@
         <v>82</v>
       </c>
       <c r="B36">
-        <v>0.5157894736842106</v>
+        <v>0.5764705882352941</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7579,7 +7579,7 @@
         <v>83</v>
       </c>
       <c r="B37">
-        <v>0.4788461538461539</v>
+        <v>0.51875</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7587,7 +7587,7 @@
         <v>84</v>
       </c>
       <c r="B38">
-        <v>0.4975369458128079</v>
+        <v>0.581888246628131</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7595,7 +7595,7 @@
         <v>85</v>
       </c>
       <c r="B39">
-        <v>0.5252365930599369</v>
+        <v>0.6043557168784029</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7603,7 +7603,7 @@
         <v>86</v>
       </c>
       <c r="B40">
-        <v>0.5222929936305732</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7611,7 +7611,7 @@
         <v>87</v>
       </c>
       <c r="B41">
-        <v>0.4974533106960951</v>
+        <v>0.548689138576779</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7619,7 +7619,7 @@
         <v>88</v>
       </c>
       <c r="B42">
-        <v>0.5416666666666666</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7627,7 +7627,7 @@
         <v>89</v>
       </c>
       <c r="B43">
-        <v>0.5241935483870968</v>
+        <v>0.5752212389380531</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7635,7 +7635,7 @@
         <v>90</v>
       </c>
       <c r="B44">
-        <v>0.5106382978723404</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7643,7 +7643,7 @@
         <v>91</v>
       </c>
       <c r="B45">
-        <v>0.5129533678756477</v>
+        <v>0.5722543352601156</v>
       </c>
     </row>
   </sheetData>
@@ -7718,7 +7718,7 @@
         <v>92</v>
       </c>
       <c r="B2">
-        <v>0.5217391304347826</v>
+        <v>0.609375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7726,7 +7726,7 @@
         <v>93</v>
       </c>
       <c r="B3">
-        <v>0.4758842443729904</v>
+        <v>0.524822695035461</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7734,7 +7734,7 @@
         <v>94</v>
       </c>
       <c r="B4">
-        <v>0.4462616822429907</v>
+        <v>0.4986945169712794</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7742,7 +7742,7 @@
         <v>95</v>
       </c>
       <c r="B5">
-        <v>0.5210355987055016</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7750,7 +7750,7 @@
         <v>96</v>
       </c>
       <c r="B6">
-        <v>0.5157563025210085</v>
+        <v>0.5624284077892325</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7758,7 +7758,7 @@
         <v>97</v>
       </c>
       <c r="B7">
-        <v>0.5166666666666667</v>
+        <v>0.5772811918063314</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7766,7 +7766,7 @@
         <v>98</v>
       </c>
       <c r="B8">
-        <v>0.5182341650671785</v>
+        <v>0.5831533477321814</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7774,7 +7774,7 @@
         <v>99</v>
       </c>
       <c r="B9">
-        <v>0.5035971223021583</v>
+        <v>0.5603217158176944</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7782,7 +7782,7 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>0.4601769911504425</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7790,7 +7790,7 @@
         <v>101</v>
       </c>
       <c r="B11">
-        <v>0.4700513405590416</v>
+        <v>0.5933429811866859</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7798,7 +7798,7 @@
         <v>102</v>
       </c>
       <c r="B12">
-        <v>0.5426997245179064</v>
+        <v>0.593939393939394</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7806,7 +7806,7 @@
         <v>103</v>
       </c>
       <c r="B13">
-        <v>0.5210727969348659</v>
+        <v>0.5720524017467249</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7814,7 +7814,7 @@
         <v>104</v>
       </c>
       <c r="B14">
-        <v>0.5125284738041003</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7822,7 +7822,7 @@
         <v>105</v>
       </c>
       <c r="B15">
-        <v>0.4879406307977737</v>
+        <v>0.5433884297520661</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7830,7 +7830,7 @@
         <v>106</v>
       </c>
       <c r="B16">
-        <v>0.4840182648401826</v>
+        <v>0.5226130653266332</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7838,7 +7838,7 @@
         <v>107</v>
       </c>
       <c r="B17">
-        <v>0.478360781309843</v>
+        <v>0.5625566636446057</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7846,7 +7846,7 @@
         <v>108</v>
       </c>
       <c r="B18">
-        <v>0.5168627450980392</v>
+        <v>0.5823008849557522</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7854,7 +7854,7 @@
         <v>109</v>
       </c>
       <c r="B19">
-        <v>0.5491990846681922</v>
+        <v>0.6050632911392405</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7862,7 +7862,7 @@
         <v>110</v>
       </c>
       <c r="B20">
-        <v>0.4620505992010652</v>
+        <v>0.5530546623794212</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7870,7 +7870,7 @@
         <v>111</v>
       </c>
       <c r="B21">
-        <v>0.5071770334928229</v>
+        <v>0.5888888888888889</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7878,7 +7878,7 @@
         <v>112</v>
       </c>
       <c r="B22">
-        <v>0.4945205479452055</v>
+        <v>0.5529953917050692</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7886,7 +7886,7 @@
         <v>113</v>
       </c>
       <c r="B23">
-        <v>0.5741857659831122</v>
+        <v>0.6177248677248677</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7894,7 +7894,7 @@
         <v>114</v>
       </c>
       <c r="B24">
-        <v>0.4803738317757009</v>
+        <v>0.5609756097560976</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7902,7 +7902,7 @@
         <v>115</v>
       </c>
       <c r="B25">
-        <v>0.5479115479115479</v>
+        <v>0.6082191780821918</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7910,7 +7910,7 @@
         <v>116</v>
       </c>
       <c r="B26">
-        <v>0.4684431977559607</v>
+        <v>0.5436573311367381</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7918,7 +7918,7 @@
         <v>117</v>
       </c>
       <c r="B27">
-        <v>0.5072</v>
+        <v>0.5627240143369175</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7926,7 +7926,7 @@
         <v>118</v>
       </c>
       <c r="B28">
-        <v>0.5011961722488039</v>
+        <v>0.5549668874172186</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7934,7 +7934,7 @@
         <v>119</v>
       </c>
       <c r="B29">
-        <v>0.427906976744186</v>
+        <v>0.5082872928176796</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +7993,7 @@
         <v>120</v>
       </c>
       <c r="B2">
-        <v>0.4752851711026616</v>
+        <v>0.589622641509434</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8001,7 +8001,7 @@
         <v>121</v>
       </c>
       <c r="B3">
-        <v>0.4347826086956522</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8009,7 +8009,7 @@
         <v>122</v>
       </c>
       <c r="B4">
-        <v>0.4392824287028519</v>
+        <v>0.4889232354456466</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8017,7 +8017,7 @@
         <v>123</v>
       </c>
       <c r="B5">
-        <v>0.4392824287028519</v>
+        <v>0.4889232354456466</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8025,7 +8025,7 @@
         <v>124</v>
       </c>
       <c r="B6">
-        <v>0.4801381692573403</v>
+        <v>0.5366795366795367</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8033,7 +8033,7 @@
         <v>125</v>
       </c>
       <c r="B7">
-        <v>0.562962962962963</v>
+        <v>0.6104417670682731</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8041,7 +8041,7 @@
         <v>126</v>
       </c>
       <c r="B8">
-        <v>0.4904534606205251</v>
+        <v>0.5706293706293706</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8049,7 +8049,7 @@
         <v>127</v>
       </c>
       <c r="B9">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8057,7 +8057,7 @@
         <v>128</v>
       </c>
       <c r="B10">
-        <v>0.5801526717557252</v>
+        <v>0.6551724137931034</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8065,7 +8065,7 @@
         <v>129</v>
       </c>
       <c r="B11">
-        <v>0.4616151545363908</v>
+        <v>0.5513905683192262</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8073,7 +8073,7 @@
         <v>130</v>
       </c>
       <c r="B12">
-        <v>0.5296442687747036</v>
+        <v>0.6090909090909091</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8081,7 +8081,7 @@
         <v>131</v>
       </c>
       <c r="B13">
-        <v>0.448051948051948</v>
+        <v>0.5073529411764706</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8089,7 +8089,7 @@
         <v>132</v>
       </c>
       <c r="B14">
-        <v>0.4540229885057471</v>
+        <v>0.4994731296101159</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8097,7 +8097,7 @@
         <v>133</v>
       </c>
       <c r="B15">
-        <v>0.4597495527728086</v>
+        <v>0.523517382413088</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8105,7 +8105,7 @@
         <v>134</v>
       </c>
       <c r="B16">
-        <v>0.5517241379310345</v>
+        <v>0.6291390728476821</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8113,7 +8113,7 @@
         <v>135</v>
       </c>
       <c r="B17">
-        <v>0.4838709677419355</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8121,7 +8121,7 @@
         <v>136</v>
       </c>
       <c r="B18">
-        <v>0.4935400516795866</v>
+        <v>0.5528219971056439</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8129,7 +8129,7 @@
         <v>137</v>
       </c>
       <c r="B19">
-        <v>0.4901185770750988</v>
+        <v>0.566412213740458</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8137,7 +8137,7 @@
         <v>138</v>
       </c>
       <c r="B20">
-        <v>0.5008264462809917</v>
+        <v>0.5480329368709973</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8145,7 +8145,7 @@
         <v>139</v>
       </c>
       <c r="B21">
-        <v>0.5212418300653595</v>
+        <v>0.5696428571428571</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8153,7 +8153,7 @@
         <v>140</v>
       </c>
       <c r="B22">
-        <v>0.4871794871794872</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8161,7 +8161,7 @@
         <v>141</v>
       </c>
       <c r="B23">
-        <v>0.5165876777251185</v>
+        <v>0.5677083333333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8169,7 +8169,7 @@
         <v>142</v>
       </c>
       <c r="B24">
-        <v>0.4912280701754386</v>
+        <v>0.5614035087719298</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8177,7 +8177,7 @@
         <v>143</v>
       </c>
       <c r="B25">
-        <v>0.4850299401197605</v>
+        <v>0.5851851851851851</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8185,7 +8185,7 @@
         <v>144</v>
       </c>
       <c r="B26">
-        <v>0.5294117647058824</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8193,7 +8193,7 @@
         <v>145</v>
       </c>
       <c r="B27">
-        <v>0.3852631578947369</v>
+        <v>0.458072590738423</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8201,7 +8201,7 @@
         <v>146</v>
       </c>
       <c r="B28">
-        <v>0.5426356589147286</v>
+        <v>0.6008583690987125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8209,7 +8209,7 @@
         <v>147</v>
       </c>
       <c r="B29">
-        <v>0.4716106604866744</v>
+        <v>0.5390728476821192</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8217,7 +8217,7 @@
         <v>148</v>
       </c>
       <c r="B30">
-        <v>0.4443155452436195</v>
+        <v>0.4973890339425587</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8225,7 +8225,7 @@
         <v>149</v>
       </c>
       <c r="B31">
-        <v>0.456353591160221</v>
+        <v>0.5143212951432129</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8233,7 +8233,7 @@
         <v>150</v>
       </c>
       <c r="B32">
-        <v>0.54421768707483</v>
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8241,7 +8241,7 @@
         <v>151</v>
       </c>
       <c r="B33">
-        <v>0.4795539033457249</v>
+        <v>0.5397489539748954</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8249,7 +8249,7 @@
         <v>152</v>
       </c>
       <c r="B34">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8257,7 +8257,7 @@
         <v>153</v>
       </c>
       <c r="B35">
-        <v>0.5068493150684932</v>
+        <v>0.581151832460733</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8265,7 +8265,7 @@
         <v>154</v>
       </c>
       <c r="B36">
-        <v>0.4845814977973568</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8273,7 +8273,7 @@
         <v>155</v>
       </c>
       <c r="B37">
-        <v>0.4986072423398329</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8281,7 +8281,7 @@
         <v>156</v>
       </c>
       <c r="B38">
-        <v>0.5213219616204691</v>
+        <v>0.5943970767356882</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8289,7 +8289,7 @@
         <v>157</v>
       </c>
       <c r="B39">
-        <v>0.4767008387698043</v>
+        <v>0.5306443163960188</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8297,7 +8297,7 @@
         <v>158</v>
       </c>
       <c r="B40">
-        <v>0.4767008387698043</v>
+        <v>0.5306443163960188</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8305,7 +8305,7 @@
         <v>159</v>
       </c>
       <c r="B41">
-        <v>0.4767008387698043</v>
+        <v>0.5306443163960188</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8313,7 +8313,7 @@
         <v>160</v>
       </c>
       <c r="B42">
-        <v>0.5454545454545454</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8321,7 +8321,7 @@
         <v>161</v>
       </c>
       <c r="B43">
-        <v>0.4641148325358851</v>
+        <v>0.5154419595314164</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8329,7 +8329,7 @@
         <v>162</v>
       </c>
       <c r="B44">
-        <v>0.5652173913043478</v>
+        <v>0.6419753086419753</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8337,7 +8337,7 @@
         <v>163</v>
       </c>
       <c r="B45">
-        <v>0.4974704890387858</v>
+        <v>0.5469924812030075</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8345,7 +8345,7 @@
         <v>164</v>
       </c>
       <c r="B46">
-        <v>0.4596651445966514</v>
+        <v>0.5137931034482759</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8353,7 +8353,7 @@
         <v>165</v>
       </c>
       <c r="B47">
-        <v>0.4575875486381323</v>
+        <v>0.5501405810684161</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8361,7 +8361,7 @@
         <v>166</v>
       </c>
       <c r="B48">
-        <v>0.5288753799392097</v>
+        <v>0.5979381443298969</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8369,7 +8369,7 @@
         <v>167</v>
       </c>
       <c r="B49">
-        <v>0.52</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8377,7 +8377,7 @@
         <v>168</v>
       </c>
       <c r="B50">
-        <v>0.4907801418439716</v>
+        <v>0.5492063492063493</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8385,7 +8385,7 @@
         <v>169</v>
       </c>
       <c r="B51">
-        <v>0.4464285714285715</v>
+        <v>0.4970178926441352</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8393,7 +8393,7 @@
         <v>170</v>
       </c>
       <c r="B52">
-        <v>0.5708245243128964</v>
+        <v>0.638095238095238</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8401,7 +8401,7 @@
         <v>171</v>
       </c>
       <c r="B53">
-        <v>0.5030674846625767</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8409,7 +8409,7 @@
         <v>172</v>
       </c>
       <c r="B54">
-        <v>0.4807692307692308</v>
+        <v>0.5376344086021505</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8417,7 +8417,7 @@
         <v>173</v>
       </c>
       <c r="B55">
-        <v>0.5142857142857142</v>
+        <v>0.6180257510729614</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8425,7 +8425,7 @@
         <v>174</v>
       </c>
       <c r="B56">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8433,7 +8433,7 @@
         <v>175</v>
       </c>
       <c r="B57">
-        <v>0.5273743016759777</v>
+        <v>0.6049222797927462</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8441,7 +8441,7 @@
         <v>176</v>
       </c>
       <c r="B58">
-        <v>0.5540838852097131</v>
+        <v>0.6136919315403423</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8449,7 +8449,7 @@
         <v>177</v>
       </c>
       <c r="B59">
-        <v>0.5189504373177842</v>
+        <v>0.5779220779220779</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8457,7 +8457,7 @@
         <v>178</v>
       </c>
       <c r="B60">
-        <v>0.4977973568281938</v>
+        <v>0.553921568627451</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8465,7 +8465,7 @@
         <v>179</v>
       </c>
       <c r="B61">
-        <v>0.4824046920821115</v>
+        <v>0.5557432432432432</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8473,7 +8473,7 @@
         <v>180</v>
       </c>
       <c r="B62">
-        <v>0.4188034188034188</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -8565,7 +8565,7 @@
         <v>181</v>
       </c>
       <c r="B2">
-        <v>0.4935897435897436</v>
+        <v>0.5645756457564576</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8573,7 +8573,7 @@
         <v>182</v>
       </c>
       <c r="B3">
-        <v>0.4689655172413793</v>
+        <v>0.5854978354978355</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8581,7 +8581,7 @@
         <v>183</v>
       </c>
       <c r="B4">
-        <v>0.4407484407484408</v>
+        <v>0.5108433734939759</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8589,7 +8589,7 @@
         <v>184</v>
       </c>
       <c r="B5">
-        <v>0.4983606557377049</v>
+        <v>0.5747126436781609</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8597,7 +8597,7 @@
         <v>185</v>
       </c>
       <c r="B6">
-        <v>0.5909090909090909</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8605,7 +8605,7 @@
         <v>186</v>
       </c>
       <c r="B7">
-        <v>0.4318181818181818</v>
+        <v>0.4933333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8613,7 +8613,7 @@
         <v>187</v>
       </c>
       <c r="B8">
-        <v>0.4885290148448043</v>
+        <v>0.551829268292683</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8621,7 +8621,7 @@
         <v>188</v>
       </c>
       <c r="B9">
-        <v>0.4285714285714285</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8629,7 +8629,7 @@
         <v>189</v>
       </c>
       <c r="B10">
-        <v>0.4662813102119461</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8637,7 +8637,7 @@
         <v>190</v>
       </c>
       <c r="B11">
-        <v>0.4934210526315789</v>
+        <v>0.5597014925373134</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8645,7 +8645,7 @@
         <v>191</v>
       </c>
       <c r="B12">
-        <v>0.4807692307692308</v>
+        <v>0.5320056899004267</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8653,7 +8653,7 @@
         <v>192</v>
       </c>
       <c r="B13">
-        <v>0.547945205479452</v>
+        <v>0.5825242718446602</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8661,7 +8661,7 @@
         <v>193</v>
       </c>
       <c r="B14">
-        <v>0.4117647058823529</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8669,7 +8669,7 @@
         <v>194</v>
       </c>
       <c r="B15">
-        <v>0.5068965517241379</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8677,7 +8677,7 @@
         <v>195</v>
       </c>
       <c r="B16">
-        <v>0.5053763440860215</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8685,7 +8685,7 @@
         <v>196</v>
       </c>
       <c r="B17">
-        <v>0.4986522911051213</v>
+        <v>0.5873015873015873</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8693,7 +8693,7 @@
         <v>197</v>
       </c>
       <c r="B18">
-        <v>0.4801762114537445</v>
+        <v>0.5636363636363636</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8701,7 +8701,7 @@
         <v>198</v>
       </c>
       <c r="B19">
-        <v>0.4536082474226804</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8709,7 +8709,7 @@
         <v>199</v>
       </c>
       <c r="B20">
-        <v>0.4615384615384616</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8717,7 +8717,7 @@
         <v>200</v>
       </c>
       <c r="B21">
-        <v>0.4314595660749507</v>
+        <v>0.5481434864694776</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8725,7 +8725,7 @@
         <v>201</v>
       </c>
       <c r="B22">
-        <v>0.5490196078431373</v>
+        <v>0.6461538461538462</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8733,7 +8733,7 @@
         <v>202</v>
       </c>
       <c r="B23">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8741,7 +8741,7 @@
         <v>203</v>
       </c>
       <c r="B24">
-        <v>0.5117521367521367</v>
+        <v>0.572289156626506</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8749,7 +8749,7 @@
         <v>204</v>
       </c>
       <c r="B25">
-        <v>0.5216450216450217</v>
+        <v>0.583941605839416</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8757,7 +8757,7 @@
         <v>205</v>
       </c>
       <c r="B26">
-        <v>0.5037174721189591</v>
+        <v>0.5576131687242798</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8765,7 +8765,7 @@
         <v>206</v>
       </c>
       <c r="B27">
-        <v>0.5282051282051282</v>
+        <v>0.5953757225433526</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8773,7 +8773,7 @@
         <v>207</v>
       </c>
       <c r="B28">
-        <v>0.5428571428571428</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8781,7 +8781,7 @@
         <v>208</v>
       </c>
       <c r="B29">
-        <v>0.45</v>
+        <v>0.5325443786982249</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8789,7 +8789,7 @@
         <v>209</v>
       </c>
       <c r="B30">
-        <v>0.4717775905644482</v>
+        <v>0.5662285136501517</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8797,7 +8797,7 @@
         <v>210</v>
       </c>
       <c r="B31">
-        <v>0.5269086357947435</v>
+        <v>0.5669398907103825</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8805,7 +8805,7 @@
         <v>211</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.4677419354838709</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8813,7 +8813,7 @@
         <v>212</v>
       </c>
       <c r="B33">
-        <v>0.4817073170731707</v>
+        <v>0.5374149659863946</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8821,7 +8821,7 @@
         <v>213</v>
       </c>
       <c r="B34">
-        <v>0.4911392405063291</v>
+        <v>0.5420289855072464</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8829,7 +8829,7 @@
         <v>214</v>
       </c>
       <c r="B35">
-        <v>0.4689655172413793</v>
+        <v>0.5854978354978355</v>
       </c>
     </row>
   </sheetData>
@@ -8894,7 +8894,7 @@
         <v>215</v>
       </c>
       <c r="B2">
-        <v>0.4847715736040609</v>
+        <v>0.5488505747126436</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8902,7 +8902,7 @@
         <v>216</v>
       </c>
       <c r="B3">
-        <v>0.5681818181818182</v>
+        <v>0.6025641025641025</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8910,7 +8910,7 @@
         <v>217</v>
       </c>
       <c r="B4">
-        <v>0.5161290322580645</v>
+        <v>0.5776772247360482</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8918,7 +8918,7 @@
         <v>218</v>
       </c>
       <c r="B5">
-        <v>0.4584717607973422</v>
+        <v>0.5054945054945055</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8926,7 +8926,7 @@
         <v>219</v>
       </c>
       <c r="B6">
-        <v>0.4734299516908212</v>
+        <v>0.5204262877442274</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8934,7 +8934,7 @@
         <v>220</v>
       </c>
       <c r="B7">
-        <v>0.4483240223463687</v>
+        <v>0.5031347962382445</v>
       </c>
     </row>
   </sheetData>
